--- a/7_Data_Extraction/Data_Extraction_Luigixlsx.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Luigixlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7AD57E-BE6E-8841-A622-48FE17717A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFF3AA-4509-1541-B84B-9FA40FAED757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="4900" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="300">
   <si>
     <t>ID</t>
   </si>
@@ -907,12 +907,6 @@
     <t>RQ2.2</t>
   </si>
   <si>
-    <t>RQ4.1</t>
-  </si>
-  <si>
-    <t>RQ4.2</t>
-  </si>
-  <si>
     <t>IQBAL20226324</t>
   </si>
   <si>
@@ -973,7 +967,16 @@
     <t>relation-based test case prioritization for regression testing test case prioritization (tcp), which aims at detecting faults as early as possible is broadly used in program regression testing. most existing tcp techniques exploit coverage information with the hypothesis that higher coverage has more chance to catch bugs. static structure information such as function and statement are frequently employed as coverage granularity. however, the former consumes less costs but presents lower capability to detect faults, the latter typically incurs more overhead. in this paper, dynamic function call sequences are argued that can guide tcp effectively. same set of functions/statements can exhibit very different execution behaviors. therefore, mapping program behaviors to unit-based (function/statement) coverage may not be enough to predict fault detection capability. we propose a new approach agc (additional greedy method call sequence). our approach leverages dynamic relation-based coverage as measurement to extend the original additional greedy coverage algorithm in tcp techniques. we conduct our experiments on eight real-world java open source projects and systematically compare agc against 22 state-of-the-art tcp techniques with different granularities. results show that agc outperforms existing techniques on large programs in terms of bug detection capability, and also achieves the highest mean apfd value. the performance demonstrates a growth trend as the size of the program increases.</t>
   </si>
   <si>
-    <t>RQ3</t>
+    <t>RQ1.3a</t>
+  </si>
+  <si>
+    <t>RQ2.3</t>
+  </si>
+  <si>
+    <t>RQ3.1</t>
+  </si>
+  <si>
+    <t>RQ3.2</t>
   </si>
 </sst>
 </file>
@@ -1360,15 +1363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AW52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,35 +1502,36 @@
         <v>273</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>276</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>278</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -1536,45 +1540,45 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" t="s">
         <v>281</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>282</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" t="s">
         <v>285</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AM2" t="s">
         <v>287</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AN2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>288</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -1586,16 +1590,16 @@
         <v>163</v>
       </c>
       <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" t="s">
         <v>292</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="K3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="M3" t="s">
         <v>80</v>
@@ -1604,16 +1608,16 @@
         <v>83</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AM3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AN3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>99</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>103</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>107</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>111</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>115</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>119</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>123</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>127</v>
       </c>
